--- a/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
+++ b/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="addUser" sheetId="2" r:id="rId2"/>
+    <sheet name="searchUser" sheetId="3" r:id="rId3"/>
+    <sheet name="uploadfile" sheetId="4" r:id="rId4"/>
+    <sheet name="assignleave" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="50">
   <si>
     <t>Action</t>
   </si>
@@ -28,6 +32,9 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Data</t>
+  </si>
+  <si>
     <t>openBrowser</t>
   </si>
   <si>
@@ -67,18 +74,113 @@
     <t>quit</t>
   </si>
   <si>
-    <t>selectDropwown</t>
+    <t>//span[text()='Admin']</t>
+  </si>
+  <si>
+    <t>//span[text()='User Management ']</t>
+  </si>
+  <si>
+    <t>//a[text()='Users']</t>
+  </si>
+  <si>
+    <t>//button[text()=' Add ']</t>
+  </si>
+  <si>
+    <t>//label[text()='User Role']//following::div[3]</t>
+  </si>
+  <si>
+    <t>//*[text()='ESS']</t>
+  </si>
+  <si>
+    <t>//label[text()='Employee Name']//following::input[1]</t>
+  </si>
+  <si>
+    <t>saroj</t>
+  </si>
+  <si>
+    <t>//label[text()='Status']//following::div[3]</t>
+  </si>
+  <si>
+    <t>//*[text()='Enabled']</t>
+  </si>
+  <si>
+    <t>//label[text()='Username']//following::input[1]</t>
+  </si>
+  <si>
+    <t>//label[text()='Password']//following::input[1]</t>
+  </si>
+  <si>
+    <t>S@r0jdas</t>
+  </si>
+  <si>
+    <t>//label[text()='Confirm Password']//following::input[1]</t>
+  </si>
+  <si>
+    <t>//button[text()=' Cancel ']</t>
+  </si>
+  <si>
+    <t>selectDropdown</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>//button[text()=' Search ']</t>
+  </si>
+  <si>
+    <t>//span[text()='PIM']</t>
+  </si>
+  <si>
+    <t>//span[text()='Configuration ']</t>
+  </si>
+  <si>
+    <t>//a[text()='Data Import']</t>
+  </si>
+  <si>
+    <t>//div[text()='No file selected']</t>
+  </si>
+  <si>
+    <t>C:\Users\saroj.das\Downloads\importData.csv</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>//span[text()='Leave']</t>
+  </si>
+  <si>
+    <t>//a[text()='Assign Leave']</t>
+  </si>
+  <si>
+    <t>//label[text()='From Date']//following::input[1]</t>
+  </si>
+  <si>
+    <t>//label[text()='To Date']//following::input[1]</t>
+  </si>
+  <si>
+    <t>//label[text()='Comments']//following::textarea[1]</t>
+  </si>
+  <si>
+    <t>leaveApplication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,14 +206,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,7 +227,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,6 +250,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -148,7 +282,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,21 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -185,16 +311,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,9 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,23 +339,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,49 +349,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,55 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,73 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +546,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,6 +586,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,30 +623,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,169 +646,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,123 +1121,136 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="12.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="35.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="29.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="17" customHeight="1" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1135,4 +1260,1177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="55.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="74.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
+    <hyperlink ref="D17" r:id="rId2" display="S@r0jdas" tooltip="mailto:S@r0jdas"/>
+    <hyperlink ref="D18" r:id="rId2" display="S@r0jdas" tooltip="mailto:S@r0jdas"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="55.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="74.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="74.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="29.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="15.5714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45090</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5">
+        <v>45091</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
+++ b/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="addUser" sheetId="2" r:id="rId2"/>
     <sheet name="searchUser" sheetId="3" r:id="rId3"/>
-    <sheet name="uploadfile" sheetId="4" r:id="rId4"/>
-    <sheet name="assignleave" sheetId="5" r:id="rId5"/>
+    <sheet name="assignLeave" sheetId="5" r:id="rId4"/>
+    <sheet name="uploadfile" sheetId="4" r:id="rId5"/>
+    <sheet name="Executor" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="60">
   <si>
     <t>Action</t>
   </si>
@@ -119,18 +120,33 @@
     <t>//button[text()=' Cancel ']</t>
   </si>
   <si>
-    <t>selectDropdown</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
     <t>//button[text()=' Search ']</t>
   </si>
   <si>
+    <t>//span[text()='Leave']</t>
+  </si>
+  <si>
+    <t>//a[text()='Assign Leave']</t>
+  </si>
+  <si>
+    <t>//label[text()='Leave Type']//following::div[3]</t>
+  </si>
+  <si>
+    <t>//*[text()='CAN - FMLA']</t>
+  </si>
+  <si>
+    <t>//label[text()='From Date']//following::input[1]</t>
+  </si>
+  <si>
+    <t>//label[text()='To Date']//following::input[1]</t>
+  </si>
+  <si>
+    <t>//label[text()='Comments']//following::textarea[1]</t>
+  </si>
+  <si>
+    <t>leaveApplication</t>
+  </si>
+  <si>
     <t>//span[text()='PIM']</t>
   </si>
   <si>
@@ -152,22 +168,37 @@
     <t>accept</t>
   </si>
   <si>
-    <t>//span[text()='Leave']</t>
-  </si>
-  <si>
-    <t>//a[text()='Assign Leave']</t>
-  </si>
-  <si>
-    <t>//label[text()='From Date']//following::input[1]</t>
-  </si>
-  <si>
-    <t>//label[text()='To Date']//following::input[1]</t>
-  </si>
-  <si>
-    <t>//label[text()='Comments']//following::textarea[1]</t>
-  </si>
-  <si>
-    <t>leaveApplication</t>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>Scnario Name</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>addUser</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>searchUser</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>assignLeave</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -175,11 +206,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="21">
@@ -204,16 +235,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,15 +250,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,41 +273,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,6 +295,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -312,7 +312,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,14 +350,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,13 +386,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +524,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,145 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,32 +577,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,15 +591,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +615,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,7 +680,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,10 +692,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,138 +701,137 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1561,7 +1591,7 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E17" t="s">
@@ -1578,7 +1608,7 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E18" t="s">
@@ -1635,8 +1665,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1869,7 +1899,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1878,10 +1908,10 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1909,7 +1939,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -1945,6 +1975,302 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="29.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="15.5714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45090</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5">
+        <v>45091</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E13"/>
@@ -2070,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -2087,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -2104,7 +2430,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -2121,10 +2447,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -2149,7 +2475,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -2158,7 +2484,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -2190,246 +2516,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="29.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="15.5714285714286"/>
+    <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="14.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45090</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="5">
-        <v>45091</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
+++ b/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
@@ -4,149 +4,184 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="addUser" sheetId="2" r:id="rId2"/>
-    <sheet name="searchUser" sheetId="3" r:id="rId3"/>
-    <sheet name="assignLeave" sheetId="5" r:id="rId4"/>
-    <sheet name="uploadfile" sheetId="4" r:id="rId5"/>
-    <sheet name="Executor" sheetId="6" r:id="rId6"/>
+    <sheet name="Executor" sheetId="6" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId2"/>
+    <sheet name="addUser" sheetId="2" r:id="rId3"/>
+    <sheet name="searchUser" sheetId="3" r:id="rId4"/>
+    <sheet name="assignLeave" sheetId="5" r:id="rId5"/>
+    <sheet name="uploadfile" sheetId="4" r:id="rId6"/>
+    <sheet name="addSkill" sheetId="7" r:id="rId7"/>
+    <sheet name="deleteSkill" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="70">
+  <si>
+    <t>Scnario Name</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>addUser</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>searchUser</t>
+  </si>
+  <si>
+    <t>assignLeave</t>
+  </si>
+  <si>
+    <t>addSkill</t>
+  </si>
+  <si>
+    <t>deleteSkill</t>
+  </si>
+  <si>
+    <t>ActionKeyword</t>
+  </si>
+  <si>
+    <t>LocatorName</t>
+  </si>
+  <si>
+    <t>Locator Value</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>openBrowser</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>lunchUrl</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>sendKey</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//input[@name='username']</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>//input[@name='password']</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>//button[@type='submit']</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>//span[text()='Admin']</t>
+  </si>
+  <si>
+    <t>//span[text()='User Management ']</t>
+  </si>
+  <si>
+    <t>//a[text()='Users']</t>
+  </si>
+  <si>
+    <t>//button[text()=' Add ']</t>
+  </si>
+  <si>
+    <t>//label[text()='User Role']//following::div[3]</t>
+  </si>
+  <si>
+    <t>//*[text()='ESS']</t>
+  </si>
+  <si>
+    <t>//label[text()='Employee Name']//following::input[1]</t>
+  </si>
+  <si>
+    <t>saroj</t>
+  </si>
+  <si>
+    <t>//label[text()='Status']//following::div[3]</t>
+  </si>
+  <si>
+    <t>//*[text()='Enabled']</t>
+  </si>
+  <si>
+    <t>//label[text()='Username']//following::input[1]</t>
+  </si>
+  <si>
+    <t>//label[text()='Password']//following::input[1]</t>
+  </si>
+  <si>
+    <t>S@r0jdas</t>
+  </si>
+  <si>
+    <t>//label[text()='Confirm Password']//following::input[1]</t>
+  </si>
+  <si>
+    <t>//button[text()=' Cancel ']</t>
+  </si>
+  <si>
+    <t>//button[text()=' Search ']</t>
+  </si>
+  <si>
+    <t>//span[text()='Leave']</t>
+  </si>
+  <si>
+    <t>//a[text()='Assign Leave']</t>
+  </si>
+  <si>
+    <t>//label[text()='Leave Type']//following::div[3]</t>
+  </si>
+  <si>
+    <t>//*[text()='CAN - FMLA']</t>
+  </si>
+  <si>
+    <t>//label[text()='From Date']//following::input[1]</t>
+  </si>
+  <si>
+    <t>//label[text()='To Date']//following::input[1]</t>
+  </si>
+  <si>
+    <t>//label[text()='Comments']//following::textarea[1]</t>
+  </si>
+  <si>
+    <t>leaveApplication</t>
+  </si>
   <si>
     <t>Action</t>
   </si>
   <si>
-    <t>LocatorName</t>
-  </si>
-  <si>
-    <t>Locator Value</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>lunchUrl</t>
-  </si>
-  <si>
-    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
-  </si>
-  <si>
-    <t>sendKey</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//input[@name='username']</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>//input[@name='password']</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>//button[@type='submit']</t>
-  </si>
-  <si>
-    <t>quit</t>
-  </si>
-  <si>
-    <t>//span[text()='Admin']</t>
-  </si>
-  <si>
-    <t>//span[text()='User Management ']</t>
-  </si>
-  <si>
-    <t>//a[text()='Users']</t>
-  </si>
-  <si>
-    <t>//button[text()=' Add ']</t>
-  </si>
-  <si>
-    <t>//label[text()='User Role']//following::div[3]</t>
-  </si>
-  <si>
-    <t>//*[text()='ESS']</t>
-  </si>
-  <si>
-    <t>//label[text()='Employee Name']//following::input[1]</t>
-  </si>
-  <si>
-    <t>saroj</t>
-  </si>
-  <si>
-    <t>//label[text()='Status']//following::div[3]</t>
-  </si>
-  <si>
-    <t>//*[text()='Enabled']</t>
-  </si>
-  <si>
-    <t>//label[text()='Username']//following::input[1]</t>
-  </si>
-  <si>
-    <t>//label[text()='Password']//following::input[1]</t>
-  </si>
-  <si>
-    <t>S@r0jdas</t>
-  </si>
-  <si>
-    <t>//label[text()='Confirm Password']//following::input[1]</t>
-  </si>
-  <si>
-    <t>//button[text()=' Cancel ']</t>
-  </si>
-  <si>
-    <t>//button[text()=' Search ']</t>
-  </si>
-  <si>
-    <t>//span[text()='Leave']</t>
-  </si>
-  <si>
-    <t>//a[text()='Assign Leave']</t>
-  </si>
-  <si>
-    <t>//label[text()='Leave Type']//following::div[3]</t>
-  </si>
-  <si>
-    <t>//*[text()='CAN - FMLA']</t>
-  </si>
-  <si>
-    <t>//label[text()='From Date']//following::input[1]</t>
-  </si>
-  <si>
-    <t>//label[text()='To Date']//following::input[1]</t>
-  </si>
-  <si>
-    <t>//label[text()='Comments']//following::textarea[1]</t>
-  </si>
-  <si>
-    <t>leaveApplication</t>
-  </si>
-  <si>
     <t>//span[text()='PIM']</t>
   </si>
   <si>
@@ -168,37 +203,34 @@
     <t>accept</t>
   </si>
   <si>
-    <t>Test Case Id</t>
-  </si>
-  <si>
-    <t>Scnario Name</t>
-  </si>
-  <si>
-    <t>Flag</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>addUser</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>searchUser</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>assignLeave</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>//span[text()='Qualifications ']</t>
+  </si>
+  <si>
+    <t>//a[text()='Skills']</t>
+  </si>
+  <si>
+    <t>//label[text()='Name']//following::input[1]</t>
+  </si>
+  <si>
+    <t>.Net</t>
+  </si>
+  <si>
+    <t>//label[text()='Description']//following::textarea[1]</t>
+  </si>
+  <si>
+    <t>Programming Language</t>
+  </si>
+  <si>
+    <t>clickCheckBox</t>
+  </si>
+  <si>
+    <t>//div[text()='.Net']//preceding::input[1]</t>
+  </si>
+  <si>
+    <t>//button[text()=' Delete Selected ']</t>
+  </si>
+  <si>
+    <t>//button[text()=' Yes, Delete ']</t>
   </si>
 </sst>
 </file>
@@ -206,12 +238,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -224,7 +256,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,115 +267,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,7 +291,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,7 +418,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,25 +538,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,37 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,91 +586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +609,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,52 +675,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,16 +701,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,149 +721,150 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,10 +1184,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1166,121 +1275,121 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1292,13 +1401,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1311,342 +1420,342 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1660,13 +1769,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1678,587 +1787,291 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
-  <cols>
-    <col min="3" max="3" width="29.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="15.5714285714286"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="4">
-        <v>45090</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="5">
-        <v>45091</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2273,238 +2086,289 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="74.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="29.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="15.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
         <v>48</v>
       </c>
+      <c r="D12" s="5">
+        <v>45090</v>
+      </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45091</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2519,74 +2383,755 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="74.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="74.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="14.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="30.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="74.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
+++ b/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Executor" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="69">
   <si>
     <t>Scnario Name</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>addUser</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>searchUser</t>
@@ -238,11 +235,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="21">
@@ -276,22 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,28 +281,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,19 +309,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,7 +334,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,6 +366,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,6 +392,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -418,7 +415,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,43 +529,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,103 +577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,19 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,45 +606,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,11 +633,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,148 +709,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -863,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1187,7 +1184,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1216,39 +1213,39 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1275,121 +1272,121 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1420,342 +1417,342 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1774,8 +1771,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1787,291 +1784,291 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2101,274 +2098,274 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5">
         <v>45090</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6">
         <v>45091</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2398,223 +2395,223 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2645,240 +2642,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2895,8 +2892,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2909,223 +2906,223 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
+++ b/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Executor" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="71">
   <si>
     <t>Scnario Name</t>
   </si>
@@ -41,6 +41,9 @@
     <t>searchUser</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>assignLeave</t>
   </si>
   <si>
@@ -98,10 +101,13 @@
     <t>click</t>
   </si>
   <si>
+    <t>//button[@type='submitt']</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
     <t>//button[@type='submit']</t>
-  </si>
-  <si>
-    <t>quit</t>
   </si>
   <si>
     <t>//span[text()='Admin']</t>
@@ -235,12 +241,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -272,6 +278,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -280,7 +308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,13 +361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -350,7 +371,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +379,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,29 +400,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,7 +421,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,7 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +487,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,25 +553,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,109 +589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,6 +612,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -651,32 +672,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,159 +706,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -860,8 +866,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,7 +1190,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1221,31 +1227,31 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1259,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1272,121 +1278,121 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1410,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A20" sqref="$A20:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1417,349 +1423,349 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
-    <hyperlink ref="D17" r:id="rId2" display="S@r0jdas" tooltip="mailto:S@r0jdas"/>
-    <hyperlink ref="D18" r:id="rId2" display="S@r0jdas" tooltip="mailto:S@r0jdas"/>
+    <hyperlink ref="D17" r:id="rId1" display="S@r0jdas" tooltip="mailto:S@r0jdas"/>
+    <hyperlink ref="D18" r:id="rId1" display="S@r0jdas" tooltip="mailto:S@r0jdas"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://opensource-demo.orangehrmlive.com/web/index.php/auth/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1771,8 +1777,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1784,291 +1790,291 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2098,274 +2104,274 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5">
         <v>45090</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="6">
         <v>45091</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2395,223 +2401,223 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2642,240 +2648,240 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2906,223 +2912,223 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
+++ b/src/test/java/org/com/keyworddrivenframework/testdata/InputKeywords.xlsx
@@ -38,12 +38,12 @@
     <t>addUser</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>searchUser</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>assignLeave</t>
   </si>
   <si>
@@ -74,6 +74,9 @@
     <t>NA</t>
   </si>
   <si>
+    <t>chrome</t>
+  </si>
+  <si>
     <t>lunchUrl</t>
   </si>
   <si>
@@ -101,13 +104,10 @@
     <t>click</t>
   </si>
   <si>
-    <t>//button[@type='submitt']</t>
+    <t>//button[@type='submit']</t>
   </si>
   <si>
     <t>quit</t>
-  </si>
-  <si>
-    <t>//button[@type='submit']</t>
   </si>
   <si>
     <t>//span[text()='Admin']</t>
@@ -241,12 +241,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -279,22 +279,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,8 +300,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,24 +331,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,15 +357,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,16 +377,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,7 +421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +451,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,31 +553,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,31 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,91 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,16 +616,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,25 +664,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,16 +690,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,148 +715,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -866,8 +866,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
@@ -1219,15 +1219,15 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1235,7 +1235,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1243,7 +1243,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1251,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1304,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1321,7 +1321,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1329,16 +1329,16 @@
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1346,16 +1346,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1363,13 +1363,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -1410,7 +1410,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="$A20:$XFD20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1466,7 +1466,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1474,16 +1474,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1491,16 +1491,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1508,13 +1508,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1559,10 +1559,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1661,10 +1661,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1833,7 +1833,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1892,10 +1892,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1960,10 +1960,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1994,16 +1994,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2147,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -2172,16 +2172,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -2189,13 +2189,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>45</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -2240,10 +2240,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
@@ -2308,10 +2308,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -2342,13 +2342,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2444,7 +2444,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -2452,16 +2452,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -2469,16 +2469,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -2486,13 +2486,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
@@ -2571,13 +2571,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2691,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -2699,16 +2699,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -2716,16 +2716,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -2733,13 +2733,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -2750,10 +2750,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -2767,10 +2767,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
@@ -2784,10 +2784,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -2818,10 +2818,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
@@ -2835,10 +2835,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
@@ -2852,13 +2852,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2955,7 +2955,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -2963,16 +2963,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -2980,16 +2980,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -3014,10 +3014,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>62</v>
@@ -3068,7 +3068,7 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
